--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF105782-4B9D-4A5E-8B4B-1C803EDA0649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567B314-D8C3-4844-A04C-7FE847DAAFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="915" windowWidth="13710" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1325,6 +1325,21 @@
   </si>
   <si>
     <t>Aventureiro Legado,Aventureiro Novato,Aventureiro,Aventureiro Veterano,Aventureiro Lendário,Aventureiro Mítico</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>EA 23.115</t>
+  </si>
+  <si>
+    <t>Ba～rrel♪,Barrel!,Barre~l!,Barrel.</t>
+  </si>
+  <si>
+    <t>た～る♪,たーる！,たーるっ,たる</t>
+  </si>
+  <si>
+    <t>Ba～rril♪,Barril!,Barri~l!,Barril.</t>
   </si>
 </sst>
 </file>
@@ -1702,11 +1717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100:D105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,6 +3640,23 @@
         <v>313</v>
       </c>
     </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D106" t="s">
+        <v>438</v>
+      </c>
+      <c r="E106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F106" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA67E1-A764-460B-9CF1-2772754BDFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14584E-7054-44DE-94DF-E35D385D75A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="446">
   <si>
     <t>id</t>
   </si>
@@ -1358,13 +1358,16 @@
   </si>
   <si>
     <t>...,Umimyaa,Não Consigo Dormir Esta Noite,Porquê eu fui brigar…,Era só pra cortar uma madeia…,Antes morto do que sem vida, Prefiro morrer do que perder a vida</t>
+  </si>
+  <si>
+    <t>EA 23.129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1739,18 +1742,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="225.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="243.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="225.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2177,7 +2180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -2357,12 +2360,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
@@ -2377,7 +2380,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -3049,7 +3052,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>216</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>228</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>258</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>264</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>279</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>282</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -3523,7 +3526,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>294</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>303</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>306</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>309</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>342</v>
       </c>

--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14584E-7054-44DE-94DF-E35D385D75A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911BCDA-4F1E-4E2F-BFD9-36AE8A09DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9675" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="495">
   <si>
     <t>id</t>
   </si>
@@ -1361,13 +1361,160 @@
   </si>
   <si>
     <t>EA 23.129</t>
+  </si>
+  <si>
+    <t>EA 23.123</t>
+  </si>
+  <si>
+    <t>を切り払い,切られた,切った,切られて</t>
+  </si>
+  <si>
+    <t>を突き刺し,突き刺された,突きさした,突きさされて</t>
+  </si>
+  <si>
+    <t>を打って,打たれた,打った,打たれて</t>
+  </si>
+  <si>
+    <t>を魔力で打ち,魔力で打たれた,魔力を放った,魔力を放たれて</t>
+  </si>
+  <si>
+    <t>を撃って,撃たれた,撃った,撃たれて</t>
+  </si>
+  <si>
+    <t>を射って,射たれた,射った,射られて</t>
+  </si>
+  <si>
+    <t>を殴って,殴られた,殴った,殴られて,手</t>
+  </si>
+  <si>
+    <t>を蹴って,蹴られた,蹴った,蹴られて,脚</t>
+  </si>
+  <si>
+    <t>を引っ掻き,引っ掻かれた,引っ掻いた,引っ掻かれて,爪</t>
+  </si>
+  <si>
+    <t>に噛みついて,噛みつかれた,噛みついた,噛みつかれて,牙</t>
+  </si>
+  <si>
+    <t>を睨んで,睨まれた,睨んだ,睨まれて,眼</t>
+  </si>
+  <si>
+    <t>を刺し,刺された,刺した,刺されて,針</t>
+  </si>
+  <si>
+    <t>を触って,触られた,触った,触られて,手</t>
+  </si>
+  <si>
+    <t>quality_fish</t>
+  </si>
+  <si>
+    <t>EA 23.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,lively ,fabled ,legendary </t>
+  </si>
+  <si>
+    <t>,ぴちぴちの,幻の,伝説の</t>
+  </si>
+  <si>
+    <t>zone_R_Forest_cherry</t>
+  </si>
+  <si>
+    <t>EA 23.138</t>
+  </si>
+  <si>
+    <t>genders_animal</t>
+  </si>
+  <si>
+    <t>EA 23.142</t>
+  </si>
+  <si>
+    <t>中性,雌,雄</t>
+  </si>
+  <si>
+    <t>N.,F.,M.</t>
+  </si>
+  <si>
+    <t>zone_R_Undersea</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>海底</t>
+  </si>
+  <si>
+    <t>Seabed</t>
+  </si>
+  <si>
+    <t>EA 23.146</t>
+  </si>
+  <si>
+    <t>Newly grown,Slightly fluffy,Almost fluffy,Fluffy,*Fluffy*</t>
+  </si>
+  <si>
+    <t>生えたて,少しもこもこ,もこもこ,ふさもこ,*ふさもこ*</t>
+  </si>
+  <si>
+    <t>corta(-s),corta(-s),corta(-s),corta(-s)</t>
+  </si>
+  <si>
+    <t>estoca(-s),estoca(-s),estoca(-s),estoca(-s)</t>
+  </si>
+  <si>
+    <t>esmaga(-s),esmaga(-s),esmaga(-s),esmaga(-s)</t>
+  </si>
+  <si>
+    <t>eletrocuta(-s),eletrocuta(-s),eletrocuta(-s),eletrocuta(-s)</t>
+  </si>
+  <si>
+    <t>atira em,atira em,atira em,atira em</t>
+  </si>
+  <si>
+    <t>dispara(-s),dispara(-s),dispara(-s),dispara(-s)</t>
+  </si>
+  <si>
+    <t>soca(-s),soca(-s),soca(-s),soca(-s),mão</t>
+  </si>
+  <si>
+    <t>chuta(-s),chuta(-s),chuta(-s),chuta(-s),perna</t>
+  </si>
+  <si>
+    <t>arranha(-s),arranha(-s),arranha(-s),arranha(-s),garra</t>
+  </si>
+  <si>
+    <t>morde(-s),morde(-s),morde(-s),morde(-s),presa</t>
+  </si>
+  <si>
+    <t>encara(-s),encara(-s),encara(-s),encara(-s),olho</t>
+  </si>
+  <si>
+    <t>pica(-s),pica(-s),pica(-s),pica(-s),agulha</t>
+  </si>
+  <si>
+    <t>toca(-s),toca(-s),toca(-s),toca(-s),mão</t>
+  </si>
+  <si>
+    <t>,vivaz ,lendário ,lendário supremo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floresta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.,F.,M.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leito Marinho  </t>
+  </si>
+  <si>
+    <t>Recém-Crescido,Levemente Fofo,Quase Fofo,Fofo,*Fofo*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1738,22 +1885,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110:D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="243.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="225.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="225.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1773,1914 +1920,2263 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>360</v>
+      </c>
+      <c r="F3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>313</v>
       </c>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>313</v>
       </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>313</v>
       </c>
       <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>316</v>
-      </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>313</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="D17" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>313</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>313</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>313</v>
       </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>313</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
       <c r="D23" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
-      </c>
-      <c r="C33" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="D37" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D38" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D41" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D42" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D45" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s">
-        <v>340</v>
+        <v>421</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="B47" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D47" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D48" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D49" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D50" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D51" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
         <v>324</v>
       </c>
       <c r="D52" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
-      </c>
-      <c r="C55" t="s">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
         <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C58" t="s">
         <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C59" t="s">
         <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C60" t="s">
         <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
         <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
         <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="F62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
-      </c>
-      <c r="C63" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="F63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" t="s">
+        <v>429</v>
+      </c>
+      <c r="E64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>188</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>328</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" t="s">
-        <v>443</v>
-      </c>
-      <c r="E64" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" t="s">
-        <v>329</v>
       </c>
       <c r="C65" t="s">
         <v>158</v>
       </c>
       <c r="D65" t="s">
+        <v>443</v>
+      </c>
+      <c r="E65" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" t="s">
+        <v>341</v>
+      </c>
+      <c r="E66" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>377</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>378</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>379</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>381</v>
+      </c>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>382</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>384</v>
+      </c>
+      <c r="E73" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="E76" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>389</v>
+      </c>
+      <c r="E77" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>390</v>
+      </c>
+      <c r="E78" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>380</v>
+      </c>
+      <c r="E79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" t="s">
+        <v>392</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" t="s">
+        <v>355</v>
+      </c>
+      <c r="E82" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>326</v>
+      </c>
+      <c r="D83" t="s">
+        <v>411</v>
+      </c>
+      <c r="E83" t="s">
+        <v>220</v>
+      </c>
+      <c r="F83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" t="s">
+        <v>430</v>
+      </c>
+      <c r="E84" t="s">
+        <v>277</v>
+      </c>
+      <c r="F84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>326</v>
+      </c>
+      <c r="D85" t="s">
+        <v>431</v>
+      </c>
+      <c r="E85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="D87" t="s">
+        <v>395</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>323</v>
+      </c>
+      <c r="D88" t="s">
+        <v>396</v>
+      </c>
+      <c r="E88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>291</v>
+      </c>
+      <c r="B90" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" t="s">
+        <v>292</v>
+      </c>
+      <c r="F90" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D91" t="s">
+        <v>435</v>
+      </c>
+      <c r="E91" t="s">
+        <v>295</v>
+      </c>
+      <c r="F91" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" t="s">
+        <v>405</v>
+      </c>
+      <c r="E92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D93" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" t="s">
+        <v>298</v>
+      </c>
+      <c r="F93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>342</v>
+      </c>
+      <c r="B94" t="s">
+        <v>343</v>
+      </c>
+      <c r="D94" t="s">
+        <v>441</v>
+      </c>
+      <c r="E94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" t="s">
+        <v>446</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>477</v>
+      </c>
+      <c r="E95" t="s">
+        <v>68</v>
+      </c>
+      <c r="F95" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" t="s">
+        <v>478</v>
+      </c>
+      <c r="E96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" t="s">
+        <v>446</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>479</v>
+      </c>
+      <c r="E97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>446</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>480</v>
+      </c>
+      <c r="E98" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
+        <v>446</v>
+      </c>
+      <c r="C99" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" t="s">
+        <v>481</v>
+      </c>
+      <c r="E99" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>446</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>482</v>
+      </c>
+      <c r="E100" t="s">
+        <v>83</v>
+      </c>
+      <c r="F100" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" t="s">
+        <v>446</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>483</v>
+      </c>
+      <c r="E101" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>446</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>484</v>
+      </c>
+      <c r="E102" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" t="s">
+        <v>446</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>485</v>
+      </c>
+      <c r="E103" t="s">
+        <v>92</v>
+      </c>
+      <c r="F103" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>486</v>
+      </c>
+      <c r="E104" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>487</v>
+      </c>
+      <c r="E105" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>446</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>488</v>
+      </c>
+      <c r="E106" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>489</v>
+      </c>
+      <c r="E107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F107" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" t="s">
+        <v>461</v>
+      </c>
+      <c r="D108" t="s">
+        <v>490</v>
+      </c>
+      <c r="E108" t="s">
+        <v>462</v>
+      </c>
+      <c r="F108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>97</v>
+      </c>
+      <c r="B109" t="s">
+        <v>445</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>387</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>464</v>
+      </c>
+      <c r="B110" t="s">
+        <v>465</v>
+      </c>
+      <c r="D110" t="s">
+        <v>491</v>
+      </c>
+      <c r="E110" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" t="s">
+        <v>467</v>
+      </c>
+      <c r="D111" t="s">
+        <v>492</v>
+      </c>
+      <c r="E111" t="s">
+        <v>469</v>
+      </c>
+      <c r="F111" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>470</v>
+      </c>
+      <c r="B112" t="s">
+        <v>471</v>
+      </c>
+      <c r="D112" t="s">
+        <v>493</v>
+      </c>
+      <c r="E112" t="s">
+        <v>473</v>
+      </c>
+      <c r="F112" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" t="s">
+        <v>474</v>
+      </c>
+      <c r="D113" t="s">
+        <v>494</v>
+      </c>
+      <c r="E113" t="s">
+        <v>475</v>
+      </c>
+      <c r="F113" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" t="s">
+        <v>394</v>
+      </c>
+      <c r="E114" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>314</v>
+      </c>
+      <c r="D115" t="s">
+        <v>364</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="s">
         <v>402</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E116" t="s">
         <v>192</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F116" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" t="s">
-        <v>318</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" t="s">
         <v>158</v>
       </c>
-      <c r="D66" t="s">
-        <v>403</v>
-      </c>
-      <c r="E66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B67" t="s">
-        <v>318</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D117" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>300</v>
+      </c>
+      <c r="B118" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" t="s">
+        <v>437</v>
+      </c>
+      <c r="E118" t="s">
+        <v>301</v>
+      </c>
+      <c r="F118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="D119" t="s">
+        <v>438</v>
+      </c>
+      <c r="E119" t="s">
+        <v>304</v>
+      </c>
+      <c r="F119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>282</v>
+      </c>
+      <c r="B120" t="s">
+        <v>332</v>
+      </c>
+      <c r="D120" t="s">
+        <v>432</v>
+      </c>
+      <c r="E120" t="s">
+        <v>283</v>
+      </c>
+      <c r="F120" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" t="s">
+        <v>316</v>
+      </c>
+      <c r="D121" t="s">
+        <v>368</v>
+      </c>
+      <c r="E121" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>327</v>
+      </c>
+      <c r="C122" t="s">
         <v>158</v>
       </c>
-      <c r="D67" t="s">
-        <v>404</v>
-      </c>
-      <c r="E67" t="s">
-        <v>198</v>
-      </c>
-      <c r="F67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" t="s">
-        <v>330</v>
-      </c>
-      <c r="C68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" t="s">
-        <v>405</v>
-      </c>
-      <c r="E68" t="s">
-        <v>201</v>
-      </c>
-      <c r="F68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" t="s">
-        <v>318</v>
-      </c>
-      <c r="C69" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" t="s">
-        <v>406</v>
-      </c>
-      <c r="E69" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" t="s">
-        <v>331</v>
-      </c>
-      <c r="C70" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" t="s">
-        <v>406</v>
-      </c>
-      <c r="E70" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" t="s">
-        <v>318</v>
-      </c>
-      <c r="C71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" t="s">
-        <v>407</v>
-      </c>
-      <c r="E71" t="s">
-        <v>208</v>
-      </c>
-      <c r="F71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" t="s">
-        <v>318</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" t="s">
-        <v>408</v>
-      </c>
-      <c r="E72" t="s">
-        <v>211</v>
-      </c>
-      <c r="F72" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" t="s">
-        <v>318</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" t="s">
-        <v>409</v>
-      </c>
-      <c r="E73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>216</v>
-      </c>
-      <c r="B74" t="s">
-        <v>313</v>
-      </c>
-      <c r="C74" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" t="s">
-        <v>410</v>
-      </c>
-      <c r="E74" t="s">
-        <v>217</v>
-      </c>
-      <c r="F74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" t="s">
-        <v>326</v>
-      </c>
-      <c r="D75" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" t="s">
-        <v>220</v>
-      </c>
-      <c r="F75" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>222</v>
-      </c>
-      <c r="B76" t="s">
-        <v>315</v>
-      </c>
-      <c r="D76" t="s">
-        <v>412</v>
-      </c>
-      <c r="E76" t="s">
-        <v>223</v>
-      </c>
-      <c r="F76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>225</v>
-      </c>
-      <c r="B77" t="s">
-        <v>317</v>
-      </c>
-      <c r="D77" t="s">
-        <v>413</v>
-      </c>
-      <c r="E77" t="s">
-        <v>226</v>
-      </c>
-      <c r="F77" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" t="s">
-        <v>317</v>
-      </c>
-      <c r="D78" t="s">
-        <v>414</v>
-      </c>
-      <c r="E78" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>231</v>
-      </c>
-      <c r="B79" t="s">
-        <v>317</v>
-      </c>
-      <c r="D79" t="s">
-        <v>415</v>
-      </c>
-      <c r="E79" t="s">
-        <v>232</v>
-      </c>
-      <c r="F79" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" t="s">
-        <v>324</v>
-      </c>
-      <c r="D80" t="s">
-        <v>416</v>
-      </c>
-      <c r="E80" t="s">
-        <v>235</v>
-      </c>
-      <c r="F80" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>237</v>
-      </c>
-      <c r="B81" t="s">
-        <v>324</v>
-      </c>
-      <c r="D81" t="s">
-        <v>417</v>
-      </c>
-      <c r="E81" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>240</v>
-      </c>
-      <c r="B82" t="s">
-        <v>324</v>
-      </c>
-      <c r="D82" t="s">
-        <v>418</v>
-      </c>
-      <c r="E82" t="s">
-        <v>241</v>
-      </c>
-      <c r="F82" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>243</v>
-      </c>
-      <c r="B83" t="s">
-        <v>324</v>
-      </c>
-      <c r="D83" t="s">
-        <v>419</v>
-      </c>
-      <c r="E83" t="s">
-        <v>244</v>
-      </c>
-      <c r="F83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>246</v>
-      </c>
-      <c r="B84" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" t="s">
-        <v>420</v>
-      </c>
-      <c r="E84" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>249</v>
-      </c>
-      <c r="B85" t="s">
-        <v>324</v>
-      </c>
-      <c r="D85" t="s">
-        <v>421</v>
-      </c>
-      <c r="E85" t="s">
-        <v>250</v>
-      </c>
-      <c r="F85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>252</v>
-      </c>
-      <c r="B86" t="s">
-        <v>324</v>
-      </c>
-      <c r="D86" t="s">
-        <v>422</v>
-      </c>
-      <c r="E86" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>255</v>
-      </c>
-      <c r="B87" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" t="s">
-        <v>423</v>
-      </c>
-      <c r="E87" t="s">
-        <v>256</v>
-      </c>
-      <c r="F87" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88" t="s">
-        <v>324</v>
-      </c>
-      <c r="D88" t="s">
-        <v>424</v>
-      </c>
-      <c r="E88" t="s">
-        <v>259</v>
-      </c>
-      <c r="F88" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>261</v>
-      </c>
-      <c r="B89" t="s">
-        <v>324</v>
-      </c>
-      <c r="D89" t="s">
-        <v>425</v>
-      </c>
-      <c r="E89" t="s">
-        <v>262</v>
-      </c>
-      <c r="F89" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>264</v>
-      </c>
-      <c r="B90" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" t="s">
-        <v>426</v>
-      </c>
-      <c r="E90" t="s">
-        <v>265</v>
-      </c>
-      <c r="F90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>267</v>
-      </c>
-      <c r="B91" t="s">
-        <v>324</v>
-      </c>
-      <c r="D91" t="s">
-        <v>427</v>
-      </c>
-      <c r="E91" t="s">
-        <v>268</v>
-      </c>
-      <c r="F91" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>270</v>
-      </c>
-      <c r="B92" t="s">
-        <v>318</v>
-      </c>
-      <c r="D92" t="s">
-        <v>428</v>
-      </c>
-      <c r="E92" t="s">
-        <v>271</v>
-      </c>
-      <c r="F92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>273</v>
-      </c>
-      <c r="B93" t="s">
-        <v>318</v>
-      </c>
-      <c r="D93" t="s">
-        <v>429</v>
-      </c>
-      <c r="E93" t="s">
-        <v>274</v>
-      </c>
-      <c r="F93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>276</v>
-      </c>
-      <c r="B94" t="s">
-        <v>326</v>
-      </c>
-      <c r="D94" t="s">
-        <v>430</v>
-      </c>
-      <c r="E94" t="s">
-        <v>277</v>
-      </c>
-      <c r="F94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>279</v>
-      </c>
-      <c r="B95" t="s">
-        <v>326</v>
-      </c>
-      <c r="D95" t="s">
-        <v>431</v>
-      </c>
-      <c r="E95" t="s">
-        <v>280</v>
-      </c>
-      <c r="F95" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>282</v>
-      </c>
-      <c r="B96" t="s">
-        <v>332</v>
-      </c>
-      <c r="D96" t="s">
-        <v>432</v>
-      </c>
-      <c r="E96" t="s">
-        <v>283</v>
-      </c>
-      <c r="F96" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>285</v>
-      </c>
-      <c r="B97" t="s">
-        <v>328</v>
-      </c>
-      <c r="C97" t="s">
-        <v>286</v>
-      </c>
-      <c r="D97" t="s">
-        <v>341</v>
-      </c>
-      <c r="E97" t="s">
-        <v>287</v>
-      </c>
-      <c r="F97" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>288</v>
-      </c>
-      <c r="B98" t="s">
-        <v>323</v>
-      </c>
-      <c r="D98" t="s">
-        <v>433</v>
-      </c>
-      <c r="E98" t="s">
-        <v>289</v>
-      </c>
-      <c r="F98" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" t="s">
-        <v>323</v>
-      </c>
-      <c r="D99" t="s">
-        <v>434</v>
-      </c>
-      <c r="E99" t="s">
-        <v>292</v>
-      </c>
-      <c r="F99" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>294</v>
-      </c>
-      <c r="B100" t="s">
-        <v>323</v>
-      </c>
-      <c r="D100" t="s">
-        <v>435</v>
-      </c>
-      <c r="E100" t="s">
-        <v>295</v>
-      </c>
-      <c r="F100" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>297</v>
-      </c>
-      <c r="B101" t="s">
-        <v>333</v>
-      </c>
-      <c r="D101" t="s">
-        <v>436</v>
-      </c>
-      <c r="E101" t="s">
-        <v>298</v>
-      </c>
-      <c r="F101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>300</v>
-      </c>
-      <c r="B102" t="s">
-        <v>331</v>
-      </c>
-      <c r="D102" t="s">
-        <v>437</v>
-      </c>
-      <c r="E102" t="s">
-        <v>301</v>
-      </c>
-      <c r="F102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>303</v>
-      </c>
-      <c r="B103" t="s">
-        <v>334</v>
-      </c>
-      <c r="D103" t="s">
-        <v>438</v>
-      </c>
-      <c r="E103" t="s">
-        <v>304</v>
-      </c>
-      <c r="F103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
+      <c r="D122" t="s">
+        <v>400</v>
+      </c>
+      <c r="E122" t="s">
+        <v>183</v>
+      </c>
+      <c r="F122" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>306</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B123" t="s">
         <v>335</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D123" t="s">
         <v>439</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E123" t="s">
         <v>307</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F123" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>309</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B124" t="s">
         <v>335</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D124" t="s">
         <v>440</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E124" t="s">
         <v>310</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F124" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>342</v>
-      </c>
-      <c r="B106" t="s">
-        <v>343</v>
-      </c>
-      <c r="D106" t="s">
-        <v>441</v>
-      </c>
-      <c r="E106" t="s">
-        <v>344</v>
-      </c>
-      <c r="F106" t="s">
-        <v>345</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F106">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SteamLibrary\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911BCDA-4F1E-4E2F-BFD9-36AE8A09DE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F58DAB-2A8C-423F-9D50-EAE37B2A1F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="512">
   <si>
     <t>id</t>
   </si>
@@ -1508,13 +1508,64 @@
   </si>
   <si>
     <t>Recém-Crescido,Levemente Fofo,Quase Fofo,Fofo,*Fofo*</t>
+  </si>
+  <si>
+    <t>onii2</t>
+  </si>
+  <si>
+    <t>EA 23.155</t>
+  </si>
+  <si>
+    <t>Onii</t>
+  </si>
+  <si>
+    <t>お兄</t>
+  </si>
+  <si>
+    <t>onee2</t>
+  </si>
+  <si>
+    <t>Onee</t>
+  </si>
+  <si>
+    <t>お姉</t>
+  </si>
+  <si>
+    <t>EA 23.183</t>
+  </si>
+  <si>
+    <t>Foe,Hate,Annoying,Normal,Approved,Friendly,Respected,Intimate,Fond,*Love*,*Love Love*,*Love Love Love*,♥</t>
+  </si>
+  <si>
+    <t>天敵,嫌い,冷ややか,普通,好意的,フレンドリー,信頼,親密,溺愛,*Love*,*Love Love*,*Love Love Love*,♥</t>
+  </si>
+  <si>
+    <t>EA 23.187</t>
+  </si>
+  <si>
+    <t>A night in the Meadow,A night in the Meadow (Winter),In a cave,One Block (Test)</t>
+  </si>
+  <si>
+    <t>野原の一夜,野原の一夜 (冬),洞窟で,ワンブロック（テスト）</t>
+  </si>
+  <si>
+    <t>Mano</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Inimigo,Ódio,Irritante,Normal,Aprovado,Amigável,Respeitado,Íntimo,Afetuoso,Amor,Amor Amor,Amor Amor Amor,♥</t>
+  </si>
+  <si>
+    <t>Uma noite no Prado,Uma noite no Prado (Inverno),Em uma caverna,Um Bloco (Teste)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1885,22 +1936,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110:D113"/>
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="225.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="243.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="225.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1988,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +2005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1971,7 +2022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1988,7 +2039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2005,7 +2056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2025,7 +2076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2045,7 +2096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2065,7 +2116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2085,7 +2136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2105,7 +2156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2125,7 +2176,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2145,7 +2196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -2162,7 +2213,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -2179,7 +2230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -2196,7 +2247,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -2230,7 +2281,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -2247,7 +2298,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -2264,7 +2315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -2281,7 +2332,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -2298,7 +2349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2318,7 +2369,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -2338,7 +2389,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -2358,7 +2409,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -2378,7 +2429,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -2398,7 +2449,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -2418,7 +2469,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -2438,7 +2489,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>216</v>
       </c>
@@ -2458,7 +2509,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2475,7 +2526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>222</v>
       </c>
@@ -2509,7 +2560,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2529,7 +2580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2549,7 +2600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>225</v>
       </c>
@@ -2566,7 +2617,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>228</v>
       </c>
@@ -2583,7 +2634,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>231</v>
       </c>
@@ -2600,7 +2651,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -2617,7 +2668,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>234</v>
       </c>
@@ -2634,7 +2685,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>237</v>
       </c>
@@ -2651,7 +2702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>240</v>
       </c>
@@ -2668,7 +2719,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>243</v>
       </c>
@@ -2685,7 +2736,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>246</v>
       </c>
@@ -2702,7 +2753,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>249</v>
       </c>
@@ -2719,7 +2770,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>252</v>
       </c>
@@ -2736,7 +2787,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>255</v>
       </c>
@@ -2753,7 +2804,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>258</v>
       </c>
@@ -2770,7 +2821,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -2787,7 +2838,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>264</v>
       </c>
@@ -2804,7 +2855,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -2821,7 +2872,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2835,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2855,7 +2906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -2872,7 +2923,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2892,7 +2943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>194</v>
       </c>
@@ -2912,7 +2963,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>197</v>
       </c>
@@ -2932,7 +2983,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2952,7 +3003,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -2972,7 +3023,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>210</v>
       </c>
@@ -2992,7 +3043,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>213</v>
       </c>
@@ -3012,7 +3063,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>270</v>
       </c>
@@ -3029,7 +3080,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>273</v>
       </c>
@@ -3046,7 +3097,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>188</v>
       </c>
@@ -3066,7 +3117,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>285</v>
       </c>
@@ -3086,7 +3137,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3106,7 +3157,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -3126,7 +3177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -3146,7 +3197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -3166,7 +3217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -3186,7 +3237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3206,7 +3257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -3226,7 +3277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3246,7 +3297,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3266,7 +3317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -3286,7 +3337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -3306,7 +3357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -3326,7 +3377,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3346,7 +3397,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -3363,7 +3414,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -3380,7 +3431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -3400,7 +3451,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -3417,7 +3468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>276</v>
       </c>
@@ -3434,7 +3485,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>279</v>
       </c>
@@ -3451,7 +3502,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -3471,7 +3522,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>145</v>
       </c>
@@ -3488,7 +3539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -3505,7 +3556,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>288</v>
       </c>
@@ -3522,7 +3573,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>291</v>
       </c>
@@ -3539,7 +3590,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>294</v>
       </c>
@@ -3556,7 +3607,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -3576,7 +3627,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>297</v>
       </c>
@@ -3593,7 +3644,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>342</v>
       </c>
@@ -3610,7 +3661,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>67</v>
       </c>
@@ -3630,7 +3681,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -3650,7 +3701,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -3670,7 +3721,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -3690,7 +3741,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -3710,7 +3761,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -3730,7 +3781,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>85</v>
       </c>
@@ -3750,7 +3801,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -3770,7 +3821,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -3790,7 +3841,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -3810,7 +3861,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -3830,7 +3881,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -3850,7 +3901,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3870,7 +3921,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>460</v>
       </c>
@@ -3887,7 +3938,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>97</v>
       </c>
@@ -3907,7 +3958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>464</v>
       </c>
@@ -3924,7 +3975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>466</v>
       </c>
@@ -3941,7 +3992,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>470</v>
       </c>
@@ -3958,7 +4009,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>297</v>
       </c>
@@ -3975,205 +4026,273 @@
         <v>476</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" t="s">
+        <v>496</v>
+      </c>
+      <c r="D114" t="s">
+        <v>508</v>
+      </c>
+      <c r="E114" t="s">
+        <v>497</v>
+      </c>
+      <c r="F114" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s">
+        <v>496</v>
+      </c>
+      <c r="D115" t="s">
+        <v>509</v>
+      </c>
+      <c r="E115" t="s">
+        <v>500</v>
+      </c>
+      <c r="F115" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" t="s">
+        <v>502</v>
+      </c>
+      <c r="D116" t="s">
+        <v>510</v>
+      </c>
+      <c r="E116" t="s">
+        <v>503</v>
+      </c>
+      <c r="F116" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" t="s">
+        <v>505</v>
+      </c>
+      <c r="D117" t="s">
+        <v>511</v>
+      </c>
+      <c r="E117" t="s">
+        <v>506</v>
+      </c>
+      <c r="F117" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
         <v>142</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B118" t="s">
         <v>322</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D118" t="s">
         <v>394</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E118" t="s">
         <v>143</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F118" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
         <v>17</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B119" t="s">
         <v>314</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D119" t="s">
         <v>364</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E119" t="s">
         <v>18</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F119" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
         <v>191</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B120" t="s">
         <v>329</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C120" t="s">
         <v>158</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D120" t="s">
         <v>402</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E120" t="s">
         <v>192</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F120" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
         <v>206</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B121" t="s">
         <v>331</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C121" t="s">
         <v>158</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D121" t="s">
         <v>406</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E121" t="s">
         <v>204</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F121" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
         <v>300</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B122" t="s">
         <v>331</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D122" t="s">
         <v>437</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E122" t="s">
         <v>301</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F122" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
         <v>303</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B123" t="s">
         <v>334</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D123" t="s">
         <v>438</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E123" t="s">
         <v>304</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F123" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
         <v>282</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B124" t="s">
         <v>332</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D124" t="s">
         <v>432</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E124" t="s">
         <v>283</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F124" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
         <v>33</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B125" t="s">
         <v>316</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D125" t="s">
         <v>368</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E125" t="s">
         <v>34</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F125" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
         <v>182</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B126" t="s">
         <v>327</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C126" t="s">
         <v>158</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D126" t="s">
         <v>400</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E126" t="s">
         <v>183</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F126" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
         <v>306</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B127" t="s">
         <v>335</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D127" t="s">
         <v>439</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E127" t="s">
         <v>307</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F127" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
         <v>309</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B128" t="s">
         <v>335</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D128" t="s">
         <v>440</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E128" t="s">
         <v>310</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F128" t="s">
         <v>311</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F106">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F124">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SteamLibrary\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F58DAB-2A8C-423F-9D50-EAE37B2A1F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB585F-5F77-4030-A08D-3E5E7CBA0463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
@@ -4292,7 +4292,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F124">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F128">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACB585F-5F77-4030-A08D-3E5E7CBA0463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83F420-BEE7-42C0-8349-EC7DDBA47168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -1565,7 +1565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1938,20 +1938,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="243.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="225.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="243.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="225.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1971,1039 +1971,1078 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>313</v>
       </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" t="s">
+        <v>490</v>
+      </c>
+      <c r="E11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>370</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>444</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>313</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D16" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>313</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>313</v>
       </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="D27" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C28" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="D28" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>313</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
-      </c>
-      <c r="C30" t="s">
-        <v>158</v>
+        <v>324</v>
       </c>
       <c r="D30" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="F30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
         <v>313</v>
       </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
       <c r="D31" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D33" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>446</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" t="s">
+        <v>394</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D36" t="s">
-        <v>376</v>
-      </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B37" t="s">
-        <v>317</v>
-      </c>
-      <c r="D37" t="s">
-        <v>413</v>
-      </c>
-      <c r="E37" t="s">
-        <v>226</v>
-      </c>
-      <c r="F37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>228</v>
-      </c>
-      <c r="B38" t="s">
-        <v>317</v>
-      </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>319</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="E39" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" t="s">
+        <v>428</v>
+      </c>
+      <c r="E41" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>482</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>234</v>
-      </c>
-      <c r="B41" t="s">
-        <v>324</v>
-      </c>
-      <c r="D41" t="s">
-        <v>416</v>
-      </c>
-      <c r="E41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42" t="s">
-        <v>324</v>
-      </c>
-      <c r="D42" t="s">
-        <v>417</v>
-      </c>
-      <c r="E42" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>240</v>
       </c>
       <c r="B43" t="s">
         <v>324</v>
       </c>
       <c r="D43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E43" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>324</v>
+        <v>446</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>446</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D46" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>318</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>324</v>
+        <v>318</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E48" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>324</v>
+        <v>313</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>329</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="E52" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>159</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C57" t="s">
         <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s">
         <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C59" t="s">
         <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -3023,243 +3062,231 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C61" t="s">
         <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>318</v>
+        <v>446</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>319</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>445</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>285</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C67" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="D67" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
-      </c>
-      <c r="C68" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="D68" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
-      </c>
-      <c r="C69" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D69" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
-      </c>
-      <c r="C71" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
-      </c>
-      <c r="C72" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="D72" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
         <v>319</v>
@@ -3268,402 +3295,381 @@
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
-      </c>
-      <c r="C74" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="D74" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
-      </c>
-      <c r="C75" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="D75" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="E75" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
-      </c>
-      <c r="C76" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" t="s">
-        <v>30</v>
+        <v>502</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>503</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" t="s">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="D79" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>136</v>
-      </c>
-      <c r="B80" t="s">
-        <v>321</v>
-      </c>
-      <c r="D80" t="s">
-        <v>392</v>
-      </c>
-      <c r="E80" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>139</v>
       </c>
       <c r="B81" t="s">
         <v>321</v>
       </c>
       <c r="D81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" t="s">
+        <v>359</v>
+      </c>
+      <c r="E82" t="s">
+        <v>360</v>
+      </c>
+      <c r="F82" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>319</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>381</v>
+      </c>
+      <c r="E83" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>470</v>
+      </c>
+      <c r="B84" t="s">
+        <v>471</v>
+      </c>
+      <c r="D84" t="s">
+        <v>493</v>
+      </c>
+      <c r="E84" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" t="s">
+        <v>317</v>
+      </c>
+      <c r="D85" t="s">
+        <v>413</v>
+      </c>
+      <c r="E85" t="s">
+        <v>226</v>
+      </c>
+      <c r="F85" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" t="s">
+        <v>312</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" t="s">
+        <v>371</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" t="s">
+        <v>423</v>
+      </c>
+      <c r="E87" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88" t="s">
+        <v>496</v>
+      </c>
+      <c r="D88" t="s">
+        <v>509</v>
+      </c>
+      <c r="E88" t="s">
+        <v>500</v>
+      </c>
+      <c r="F88" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>495</v>
+      </c>
+      <c r="B89" t="s">
+        <v>496</v>
+      </c>
+      <c r="D89" t="s">
+        <v>508</v>
+      </c>
+      <c r="E89" t="s">
+        <v>497</v>
+      </c>
+      <c r="F89" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="D90" t="s">
+        <v>415</v>
+      </c>
+      <c r="E90" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s">
+        <v>412</v>
+      </c>
+      <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
         <v>326</v>
       </c>
-      <c r="C82" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" t="s">
-        <v>355</v>
-      </c>
-      <c r="E82" t="s">
-        <v>174</v>
-      </c>
-      <c r="F82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" t="s">
-        <v>326</v>
-      </c>
-      <c r="D83" t="s">
-        <v>411</v>
-      </c>
-      <c r="E83" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" t="s">
-        <v>326</v>
-      </c>
-      <c r="D84" t="s">
-        <v>430</v>
-      </c>
-      <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="F84" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" t="s">
-        <v>326</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="D93" t="s">
         <v>431</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E93" t="s">
         <v>280</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F93" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>145</v>
-      </c>
-      <c r="B87" t="s">
-        <v>323</v>
-      </c>
-      <c r="D87" t="s">
-        <v>395</v>
-      </c>
-      <c r="E87" t="s">
-        <v>146</v>
-      </c>
-      <c r="F87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" t="s">
-        <v>396</v>
-      </c>
-      <c r="E88" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>288</v>
-      </c>
-      <c r="B89" t="s">
-        <v>323</v>
-      </c>
-      <c r="D89" t="s">
-        <v>433</v>
-      </c>
-      <c r="E89" t="s">
-        <v>289</v>
-      </c>
-      <c r="F89" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>291</v>
-      </c>
-      <c r="B90" t="s">
-        <v>323</v>
-      </c>
-      <c r="D90" t="s">
-        <v>434</v>
-      </c>
-      <c r="E90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F90" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>294</v>
-      </c>
-      <c r="B91" t="s">
-        <v>323</v>
-      </c>
-      <c r="D91" t="s">
-        <v>435</v>
-      </c>
-      <c r="E91" t="s">
-        <v>295</v>
-      </c>
-      <c r="F91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" t="s">
-        <v>158</v>
-      </c>
-      <c r="D92" t="s">
-        <v>405</v>
-      </c>
-      <c r="E92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>297</v>
-      </c>
-      <c r="B93" t="s">
-        <v>333</v>
-      </c>
-      <c r="D93" t="s">
-        <v>436</v>
-      </c>
-      <c r="E93" t="s">
-        <v>298</v>
-      </c>
-      <c r="F93" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s">
-        <v>441</v>
+        <v>338</v>
       </c>
       <c r="E94" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>446</v>
@@ -3672,238 +3678,217 @@
         <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F95" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>446</v>
+        <v>319</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>479</v>
+        <v>409</v>
       </c>
       <c r="E97" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="F97" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="B98" t="s">
-        <v>446</v>
-      </c>
-      <c r="C98" t="s">
-        <v>30</v>
+        <v>467</v>
       </c>
       <c r="D98" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E98" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="F98" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>446</v>
-      </c>
-      <c r="C99" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D99" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>446</v>
-      </c>
-      <c r="C100" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="E100" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="F100" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
-        <v>446</v>
-      </c>
-      <c r="C101" t="s">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="E101" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="F101" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>446</v>
-      </c>
-      <c r="C102" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D102" t="s">
-        <v>484</v>
+        <v>339</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>446</v>
+        <v>319</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>485</v>
+        <v>388</v>
       </c>
       <c r="E103" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F103" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
-      </c>
-      <c r="C104" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="D104" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="E104" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="F104" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>446</v>
-      </c>
-      <c r="C105" t="s">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c r="D105" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="F105" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" t="s">
+        <v>370</v>
+      </c>
+      <c r="E106" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>446</v>
-      </c>
-      <c r="C106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" t="s">
-        <v>488</v>
-      </c>
-      <c r="E106" t="s">
-        <v>104</v>
-      </c>
-      <c r="F106" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>446</v>
@@ -3912,388 +3897,403 @@
         <v>30</v>
       </c>
       <c r="D107" t="s">
+        <v>488</v>
+      </c>
+      <c r="E107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>389</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" t="s">
+        <v>158</v>
+      </c>
+      <c r="D109" t="s">
+        <v>408</v>
+      </c>
+      <c r="E109" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" t="s">
+        <v>369</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" t="s">
+        <v>417</v>
+      </c>
+      <c r="E111" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" t="s">
+        <v>362</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" t="s">
+        <v>361</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" t="s">
+        <v>436</v>
+      </c>
+      <c r="E114" t="s">
+        <v>298</v>
+      </c>
+      <c r="F114" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" t="s">
+        <v>474</v>
+      </c>
+      <c r="D115" t="s">
+        <v>494</v>
+      </c>
+      <c r="E115" t="s">
+        <v>475</v>
+      </c>
+      <c r="F115" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" t="s">
+        <v>340</v>
+      </c>
+      <c r="E116" t="s">
+        <v>134</v>
+      </c>
+      <c r="F116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>442</v>
+      </c>
+      <c r="E117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" t="s">
+        <v>446</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>483</v>
+      </c>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" t="s">
+        <v>383</v>
+      </c>
+      <c r="E119" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>261</v>
+      </c>
+      <c r="B120" t="s">
+        <v>324</v>
+      </c>
+      <c r="D120" t="s">
+        <v>425</v>
+      </c>
+      <c r="E120" t="s">
+        <v>262</v>
+      </c>
+      <c r="F120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" t="s">
+        <v>435</v>
+      </c>
+      <c r="E121" t="s">
+        <v>295</v>
+      </c>
+      <c r="F121" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" t="s">
         <v>489</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E122" t="s">
         <v>107</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F122" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>460</v>
-      </c>
-      <c r="B108" t="s">
-        <v>461</v>
-      </c>
-      <c r="D108" t="s">
-        <v>490</v>
-      </c>
-      <c r="E108" t="s">
-        <v>462</v>
-      </c>
-      <c r="F108" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" t="s">
-        <v>445</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" t="s">
         <v>30</v>
       </c>
-      <c r="D109" t="s">
-        <v>387</v>
-      </c>
-      <c r="E109" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>464</v>
-      </c>
-      <c r="B110" t="s">
-        <v>465</v>
-      </c>
-      <c r="D110" t="s">
-        <v>491</v>
-      </c>
-      <c r="E110" t="s">
-        <v>119</v>
-      </c>
-      <c r="F110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>466</v>
-      </c>
-      <c r="B111" t="s">
-        <v>467</v>
-      </c>
-      <c r="D111" t="s">
-        <v>492</v>
-      </c>
-      <c r="E111" t="s">
-        <v>469</v>
-      </c>
-      <c r="F111" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>470</v>
-      </c>
-      <c r="B112" t="s">
-        <v>471</v>
-      </c>
-      <c r="D112" t="s">
-        <v>493</v>
-      </c>
-      <c r="E112" t="s">
-        <v>473</v>
-      </c>
-      <c r="F112" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>297</v>
-      </c>
-      <c r="B113" t="s">
-        <v>474</v>
-      </c>
-      <c r="D113" t="s">
-        <v>494</v>
-      </c>
-      <c r="E113" t="s">
-        <v>475</v>
-      </c>
-      <c r="F113" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>495</v>
-      </c>
-      <c r="B114" t="s">
-        <v>496</v>
-      </c>
-      <c r="D114" t="s">
-        <v>508</v>
-      </c>
-      <c r="E114" t="s">
-        <v>497</v>
-      </c>
-      <c r="F114" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>499</v>
-      </c>
-      <c r="B115" t="s">
-        <v>496</v>
-      </c>
-      <c r="D115" t="s">
-        <v>509</v>
-      </c>
-      <c r="E115" t="s">
-        <v>500</v>
-      </c>
-      <c r="F115" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" t="s">
-        <v>502</v>
-      </c>
-      <c r="D116" t="s">
-        <v>510</v>
-      </c>
-      <c r="E116" t="s">
-        <v>503</v>
-      </c>
-      <c r="F116" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
+      <c r="D123" t="s">
+        <v>390</v>
+      </c>
+      <c r="E123" t="s">
+        <v>107</v>
+      </c>
+      <c r="F123" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" t="s">
+        <v>358</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>282</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B126" t="s">
+        <v>332</v>
+      </c>
+      <c r="D126" t="s">
+        <v>432</v>
+      </c>
+      <c r="E126" t="s">
+        <v>283</v>
+      </c>
+      <c r="F126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" t="s">
         <v>505</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D127" t="s">
         <v>511</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E127" t="s">
         <v>506</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F127" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>142</v>
-      </c>
-      <c r="B118" t="s">
-        <v>322</v>
-      </c>
-      <c r="D118" t="s">
-        <v>394</v>
-      </c>
-      <c r="E118" t="s">
-        <v>143</v>
-      </c>
-      <c r="F118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" t="s">
-        <v>314</v>
-      </c>
-      <c r="D119" t="s">
-        <v>364</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>191</v>
-      </c>
-      <c r="B120" t="s">
-        <v>329</v>
-      </c>
-      <c r="C120" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" t="s">
-        <v>402</v>
-      </c>
-      <c r="E120" t="s">
-        <v>192</v>
-      </c>
-      <c r="F120" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" t="s">
-        <v>331</v>
-      </c>
-      <c r="C121" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121" t="s">
-        <v>406</v>
-      </c>
-      <c r="E121" t="s">
-        <v>204</v>
-      </c>
-      <c r="F121" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>300</v>
-      </c>
-      <c r="B122" t="s">
-        <v>331</v>
-      </c>
-      <c r="D122" t="s">
-        <v>437</v>
-      </c>
-      <c r="E122" t="s">
-        <v>301</v>
-      </c>
-      <c r="F122" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>303</v>
-      </c>
-      <c r="B123" t="s">
-        <v>334</v>
-      </c>
-      <c r="D123" t="s">
-        <v>438</v>
-      </c>
-      <c r="E123" t="s">
-        <v>304</v>
-      </c>
-      <c r="F123" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>282</v>
-      </c>
-      <c r="B124" t="s">
-        <v>332</v>
-      </c>
-      <c r="D124" t="s">
-        <v>432</v>
-      </c>
-      <c r="E124" t="s">
-        <v>283</v>
-      </c>
-      <c r="F124" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" t="s">
-        <v>368</v>
-      </c>
-      <c r="E125" t="s">
-        <v>34</v>
-      </c>
-      <c r="F125" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" t="s">
-        <v>327</v>
-      </c>
-      <c r="C126" t="s">
-        <v>158</v>
-      </c>
-      <c r="D126" t="s">
-        <v>400</v>
-      </c>
-      <c r="E126" t="s">
-        <v>183</v>
-      </c>
-      <c r="F126" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>306</v>
-      </c>
-      <c r="B127" t="s">
-        <v>335</v>
-      </c>
-      <c r="D127" t="s">
-        <v>439</v>
-      </c>
-      <c r="E127" t="s">
-        <v>307</v>
-      </c>
-      <c r="F127" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>320</v>
+      </c>
+      <c r="C128" t="s">
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="E128" t="s">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>311</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F128">
-      <sortCondition ref="B2"/>
+      <sortCondition ref="D2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/List.xlsx
+++ b/PTBR/Lang/PTBR/Game/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83F420-BEE7-42C0-8349-EC7DDBA47168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1A77C7-3928-4E8A-8C48-9DD5278EA2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="510">
   <si>
     <t>id</t>
   </si>
@@ -1498,15 +1498,6 @@
     <t>,vivaz ,lendário ,lendário supremo</t>
   </si>
   <si>
-    <t xml:space="preserve">Floresta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.,F.,M.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leito Marinho  </t>
-  </si>
-  <si>
     <t>Recém-Crescido,Levemente Fofo,Quase Fofo,Fofo,*Fofo*</t>
   </si>
   <si>
@@ -1559,6 +1550,9 @@
   </si>
   <si>
     <t>Uma noite no Prado,Uma noite no Prado (Inverno),Em uma caverna,Um Bloco (Teste)</t>
+  </si>
+  <si>
+    <t>Leito Marinho</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1934,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3252,7 @@
         <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
+        <v>337</v>
       </c>
       <c r="E71" t="s">
         <v>119</v>
@@ -3360,16 +3354,16 @@
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E77" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F77" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,7 +3479,7 @@
         <v>471</v>
       </c>
       <c r="D84" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="E84" t="s">
         <v>473</v>
@@ -3550,36 +3544,36 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D88" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E88" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F88" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89" t="s">
+        <v>493</v>
+      </c>
+      <c r="D89" t="s">
+        <v>505</v>
+      </c>
+      <c r="E89" t="s">
+        <v>494</v>
+      </c>
+      <c r="F89" t="s">
         <v>495</v>
-      </c>
-      <c r="B89" t="s">
-        <v>496</v>
-      </c>
-      <c r="D89" t="s">
-        <v>508</v>
-      </c>
-      <c r="E89" t="s">
-        <v>497</v>
-      </c>
-      <c r="F89" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,7 +3729,7 @@
         <v>467</v>
       </c>
       <c r="D98" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="E98" t="s">
         <v>469</v>
@@ -4042,7 +4036,7 @@
         <v>474</v>
       </c>
       <c r="D115" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E115" t="s">
         <v>475</v>
@@ -4258,16 +4252,16 @@
         <v>282</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D127" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E127" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F127" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
